--- a/data/preprocessed/test_data.xlsx
+++ b/data/preprocessed/test_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>AGE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>BMI</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>density</t>
         </is>
@@ -452,2222 +457,2824 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.27023490425033</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.10274373681646</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.537497037859951</v>
+        <v>-1.258729883352734</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.54251138205416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.099942467279872</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.324573142672692</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.7330746237813266</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.742196308219812</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7670274866222423</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.201195574245755</v>
+        <v>-1.183636274842532</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.54251138205416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.240642406661045</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.778962885858618</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6967433788244608</v>
+        <v>1.569796037198174</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1.217835048917359</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.537497037859951</v>
+        <v>0.3432670981982224</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.278878989648752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9327578334269494</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05814008433242415</v>
+        <v>0.9065864760513398</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1922911834031666</v>
+        <v>-0.6579810152711253</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7224238341382057</v>
+        <v>0.4116392648016893</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0241404515960686</v>
+        <v>1.419608820177771</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.727194871592964</v>
+        <v>1.071568879801223</v>
       </c>
       <c r="C9" t="n">
-        <v>1.321065402860716</v>
+        <v>-0.1823881613731846</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>2.020700793630007</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.033044842438657</v>
+        <v>-1.208667477679266</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.240642406661045</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1.396249658853504</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0241404515960686</v>
+        <v>1.019109574790032</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5440092242020623</v>
+        <v>0.4116392648016893</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.2825129727201199</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.099942467279872</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.190762185220584</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6967433788244608</v>
+        <v>-0.1573569585364515</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5983885657211042</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9725149602551615</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.537497037859951</v>
+        <v>2.721231367687924</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.099942467279872</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4548019192339899</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.1573569585364515</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1.596966095031666</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.537497037859951</v>
+        <v>-0.5328250010874568</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.3971944984915919</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4994055717180257</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C17" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.3826377840670543</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5710820878988374</v>
+        <v>1.896480898550641</v>
       </c>
       <c r="C18" t="n">
-        <v>1.152914671053618</v>
+        <v>1.044140777626766</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1648781780877558</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C19" t="n">
-        <v>1.321065402860716</v>
+        <v>-1.258729883352734</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.4548019192339899</v>
+        <v>0.9065864760513398</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1922911834031666</v>
+        <v>1.419608820177771</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.190762185220584</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0241404515960686</v>
+        <v>0.9440159662798315</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.3971944984915919</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.57501167436689</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.12385670649453</v>
+        <v>1.566516091050874</v>
       </c>
       <c r="C22" t="n">
-        <v>1.489216134667814</v>
+        <v>-0.7330746237813266</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.278878989648752</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8164021765610356</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5285926470173627</v>
+        <v>-0.1823881613731846</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-1.073457772808122</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9056094815291074</v>
+        <v>-1.073202368947262</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0241404515960686</v>
+        <v>-0.6579810152711253</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.9262051931858881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.103050270397408</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1919510417845317</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.537497037859951</v>
+        <v>-0.8832618408017282</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6608268908970003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3655946142659182</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C26" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.6830122181078584</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.434311734985717</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1.396249658853504</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0241404515960686</v>
+        <v>-0.6329498124343912</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.12385670649453</v>
+        <v>-1.568149580196913</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8166132074394217</v>
+        <v>0.518485518055358</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.407827040513967</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1871800043297741</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8166132074394217</v>
+        <v>1.419608820177771</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7655731995740268</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.07567087311968414</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.08226335002625021</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6608268908970003</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4312039318681816</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.213064011462602</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3121610120181275</v>
+        <v>0.4183607067084236</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.434311734985717</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.008765394393629991</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1922911834031666</v>
+        <v>-0.8832618408017282</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>2.511340970954404</v>
+        <v>0.7416040723014563</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5285926470173627</v>
+        <v>-1.208667477679266</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6555183554121523</v>
+        <v>1.731498494800757</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.537497037859951</v>
+        <v>1.019109574790032</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.9262051931858881</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.744725660380224</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4803117438252256</v>
+        <v>-0.6579810152711253</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.34687496891471</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4803117438252256</v>
+        <v>-0.05723214718951616</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1318161962027042</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.768681002691562</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.615685740382874</v>
+        <v>2.226445706050408</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8648941106315589</v>
+        <v>0.5685479237288261</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.935865636544485</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1425763518457383</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1922911834031666</v>
+        <v>-0.7831370294547938</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.434311734985717</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1425763518457383</v>
+        <v>0.7416040723014563</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1922911834031666</v>
+        <v>-0.3826377840670543</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.27023490425033</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3034601729946216</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.537497037859951</v>
+        <v>0.2681734896880211</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.571903871249354</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.5886128766860982</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C41" t="n">
-        <v>1.152914671053618</v>
+        <v>-1.008417854985397</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.935865636544485</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2811583467526041</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.8648941106315589</v>
+        <v>-0.4327001897405215</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.742196308219812</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.324573142672692</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C43" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.9333242464751954</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.366174483822728</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.240642406661045</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>2.332926361018259</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.2482903501978447</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.2986891355398641</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.201195574245755</v>
+        <v>-0.582887406760924</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.168460358978566</v>
+        <v>1.236551283551107</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.1573569585364515</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.4312039318681816</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.3655946142659182</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8166132074394217</v>
+        <v>0.9440159662798315</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>1.351646006369467</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C48" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.9833866521486635</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6778201816541698</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3121610120181275</v>
+        <v>0.1179862726676195</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9327578334269494</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.9008384440743498</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C50" t="n">
-        <v>1.489216134667814</v>
+        <v>-0.3826377840670543</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.257667663946638</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C51" t="n">
-        <v>1.489216134667814</v>
+        <v>-0.9583554493119294</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>1.351646006369467</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.6579810152711253</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.267127101132795</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.12027452560372</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0241404515960686</v>
+        <v>-0.3325753783935871</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.267127101132795</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.01234757528444</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C54" t="n">
-        <v>1.321065402860716</v>
+        <v>-0.8832618408017282</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.099942467279872</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>0.615685740382874</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0241404515960686</v>
+        <v>1.519733631524706</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.5983885657211042</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.056951227768476</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C56" t="n">
-        <v>1.321065402860716</v>
+        <v>-0.1072945528629843</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9062731389551993</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.146158532736548</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3121610120181275</v>
+        <v>-1.859478751434343</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.366174483822728</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.2540854830558282</v>
+        <v>-1.403167176447029</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3121610120181275</v>
+        <v>-0.3826377840670543</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.7498682949544561</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.4101982667499541</v>
+        <v>1.566516091050874</v>
       </c>
       <c r="C59" t="n">
-        <v>1.152914671053618</v>
+        <v>0.1179862726676195</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4312039318681816</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0310672206356483</v>
+        <v>1.071568879801223</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.7581058266180597</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.742196308219812</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2986891355398641</v>
+        <v>-1.073202368947262</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0241404515960686</v>
+        <v>-0.9583554493119294</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1.061722265223234</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.3604419152102647</v>
+        <v>-0.1072945528629843</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4312039318681816</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.5217073979600441</v>
+        <v>1.40153368730099</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.3604419152102647</v>
+        <v>1.219359197483902</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.9262051931858881</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1.073457772808122</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.279969490188656</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6484624756323236</v>
+        <v>-0.1823881613731846</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.7655731995740268</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2763873092978458</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.3826377840670543</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.099942467279872</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.0310672206356483</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.369346306052853</v>
+        <v>0.1930798811778208</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-1.278878989648752</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9327578334269494</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.146158532736548</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.9833866521486635</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.54251138205416</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9327578334269494</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.7001220078961882</v>
+        <v>0.7416040723014563</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.2574817698833859</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.7498682949544561</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.4101982667499541</v>
+        <v>1.40153368730099</v>
       </c>
       <c r="C69" t="n">
-        <v>1.489216134667814</v>
+        <v>-0.05723214718951616</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9262051931858881</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1.742196308219812</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.2763873092978458</v>
+        <v>0.9065864760513398</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3121610120181275</v>
+        <v>1.294452805994103</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.0310672206356483</v>
+        <v>2.391428109800291</v>
       </c>
       <c r="C71" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.3325753783935871</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4312039318681816</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.8785366178323323</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C72" t="n">
-        <v>1.152914671053618</v>
+        <v>0.2681734896880211</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.3971944984915919</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5933839141408557</v>
+        <v>-1.238184772697146</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9847639392465197</v>
+        <v>0.1430174755043526</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.8562347915903139</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.0241404515960686</v>
+        <v>-1.083511463495598</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9262051931858881</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.12027452560372</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.0241404515960686</v>
+        <v>2.120482499606314</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.7390885051022767</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2588565205105858</v>
+        <v>0.9065864760513398</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9847639392465197</v>
+        <v>0.243142286851288</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.5983885657211042</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3034601729946216</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4803117438252256</v>
+        <v>0.2181110840145539</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.5886128766860982</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C78" t="n">
-        <v>1.152914671053618</v>
+        <v>0.7687975464226949</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4312039318681816</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5264784354148015</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3121610120181275</v>
+        <v>0.7437663435859618</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.742196308219812</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.12027452560372</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.0241404515960686</v>
+        <v>0.6186103294022933</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.727194871592964</v>
+        <v>0.7416040723014563</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.369346306052853</v>
+        <v>0.9440159662798315</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9327578334269494</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0.10274373681646</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.5285926470173627</v>
+        <v>0.0178614613206842</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.168460358978566</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8166132074394217</v>
+        <v>-1.258729883352734</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.9062731389551993</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1473473893004958</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4803117438252256</v>
+        <v>-0.7080434209445925</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5041766091727841</v>
+        <v>2.061463302300524</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.5285926470173627</v>
+        <v>-0.8081682322915269</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-1.10254209141732</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.57501167436689</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.279969490188656</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.9082199651973787</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5983885657211042</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1473473893004958</v>
+        <v>-1.403167176447029</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1922911834031666</v>
+        <v>0.5685479237288261</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-1.742196308219812</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.2540854830558282</v>
+        <v>1.566516091050874</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3121610120181275</v>
+        <v>-0.582887406760924</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.4101982667499541</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.6579810152711253</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.013500687359864</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9231402703163681</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8166132074394217</v>
+        <v>-1.884509954271076</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.01234757528444</v>
+        <v>1.236551283551107</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.858230637964995</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9327578334269494</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.9454420965583856</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.033044842438657</v>
+        <v>2.270669716626716</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.3878964405079358</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4803117438252256</v>
+        <v>0.9440159662798315</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1919510417845317</v>
+        <v>1.40153368730099</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.033044842438657</v>
+        <v>0.6436415322390265</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.742196308219812</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.7224238341382057</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C95" t="n">
-        <v>1.489216134667814</v>
+        <v>-0.1573569585364515</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.6778201816541698</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9847639392465197</v>
+        <v>1.044140777626766</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.4994055717180257</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4803117438252256</v>
+        <v>0.4684231123818908</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.571903871249354</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.391478621398746</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.033044842438657</v>
+        <v>-0.4827625954139896</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>0.727194871592964</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.8832618408017282</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.9062731389551993</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.8339329653482956</v>
+        <v>0.7416040723014563</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.537497037859951</v>
+        <v>1.820108065565511</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4312039318681816</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4818747829307657</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.5285926470173627</v>
+        <v>1.669920848545108</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.27023490425033</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.09797269936170244</v>
+        <v>0.4116392648016893</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.6967433788244608</v>
+        <v>0.7187351407492277</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.4047192373964315</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>2.132209924840097</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C103" t="n">
-        <v>1.152914671053618</v>
+        <v>1.1442655889737</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5710820878988374</v>
+        <v>2.226445706050408</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.537497037859951</v>
+        <v>0.7437663435859618</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>1.373947832611486</v>
+        <v>0.4116392648016893</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.201195574245755</v>
+        <v>-0.582887406760924</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.324573142672692</v>
+        <v>0.4116392648016893</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.033044842438657</v>
+        <v>1.770045659892043</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.407827040513967</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3926674779626941</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.152914671053618</v>
+        <v>0.0178614613206842</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4818747829307657</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.4327001897405215</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.240642406661045</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.5886128766860982</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9847639392465197</v>
+        <v>0.4684231123818908</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.718848280285592</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>1.128627743949287</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.8648941106315589</v>
+        <v>2.946512193218527</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-1.278878989648752</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1250455630584775</v>
+        <v>1.236551283551107</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.537497037859951</v>
+        <v>-0.1323257556997174</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-1.10254209141732</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.571903871249354</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.257667663946638</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C112" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.1072945528629843</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.6608268908970003</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.2540854830558282</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.0241404515960686</v>
+        <v>-0.3576065812303212</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>1.150929570191306</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.537497037859951</v>
+        <v>-0.007169741516048955</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-1.278878989648752</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.103050270397408</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0.10274373681646</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4803117438252256</v>
+        <v>-0.3576065812303212</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.9262051931858881</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3034601729946216</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.537497037859951</v>
+        <v>-0.6079186095976581</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.60149636883864</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.744725660380224</v>
+        <v>0.7416040723014563</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.5285926470173627</v>
+        <v>1.219359197483902</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.9677439228004039</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.033044842438657</v>
+        <v>0.6686727350757605</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.60149636883864</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0.10274373681646</v>
+        <v>-1.403167176447029</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.0241404515960686</v>
+        <v>-0.7330746237813266</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.099942467279872</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.7224238341382057</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.5285926470173627</v>
+        <v>-0.6079186095976581</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1919510417845317</v>
+        <v>2.061463302300524</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.201195574245755</v>
+        <v>1.119234386136967</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-1.455215887880184</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.4325000929919724</v>
+        <v>0.7416040723014563</v>
       </c>
       <c r="C122" t="n">
-        <v>1.152914671053618</v>
+        <v>0.6436415322390265</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.10254209141732</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.407827040513967</v>
+        <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.744725660380224</v>
+        <v>1.071568879801223</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.537497037859951</v>
+        <v>-1.208667477679266</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.7498682949544561</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0.03583825809040584</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.201195574245755</v>
+        <v>-0.582887406760924</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.9454420965583856</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4803117438252256</v>
+        <v>1.770045659892043</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.935865636544485</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.279969490188656</v>
+        <v>1.071568879801223</v>
       </c>
       <c r="C126" t="n">
-        <v>1.489216134667814</v>
+        <v>-1.158605072005799</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>2.043002619872025</v>
+        <v>-1.568149580196913</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.8648941106315589</v>
+        <v>0.0178614613206842</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.103050270397408</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9725149602551615</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.201195574245755</v>
+        <v>0.4934543152186249</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.60149636883864</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.2986891355398641</v>
+        <v>2.226445706050408</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6484624756323236</v>
+        <v>0.9440159662798315</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.3971944984915919</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.7655731995740268</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7717985240769998</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.9333242464751954</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>1.463155137579557</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.537497037859951</v>
+        <v>-0.6830122181078584</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-1.10254209141732</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.1425763518457383</v>
+        <v>0.7416040723014563</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.5285926470173627</v>
+        <v>1.920232876912445</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.013500687359864</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.099942467279872</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>1.708475226241756</v>
+        <v>1.40153368730099</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.3604419152102647</v>
+        <v>0.1930798811778208</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.8116311391062782</v>
+        <v>1.071568879801223</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8166132074394217</v>
+        <v>-1.358854694699669</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.01234757528444</v>
+        <v>1.566516091050874</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6484624756323236</v>
+        <v>2.120482499606314</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-0.571903871249354</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.5886128766860982</v>
+        <v>1.236551283551107</v>
       </c>
       <c r="C136" t="n">
-        <v>1.152914671053618</v>
+        <v>-1.008417854985397</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.366174483822728</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.3432927880238999</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C137" t="n">
-        <v>1.321065402860716</v>
+        <v>-1.008417854985397</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.073457772808122</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>1.329344180127449</v>
+        <v>2.721392917300058</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1440102802110295</v>
+        <v>-0.4577313925772556</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9327578334269494</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9056094815291074</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C139" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.3826377840670543</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.571903871249354</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.6778201816541698</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.2482903501978447</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.2094818305717924</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4803117438252256</v>
+        <v>-1.684260331577206</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-1.407827040513967</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3926674779626941</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3121610120181275</v>
+        <v>-1.408917100373136</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.547591405092872</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C143" t="n">
-        <v>1.152914671053618</v>
+        <v>-1.809416345760875</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.366174483822728</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>2.511340970954404</v>
+        <v>-1.238184772697146</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.201195574245755</v>
+        <v>0.6686727350757605</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.09683466416233638</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3703656517206758</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C145" t="n">
-        <v>1.489216134667814</v>
+        <v>1.34451521166757</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-1.278878989648752</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.9062731389551993</v>
-      </c>
-      <c r="B146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.4132727539477282</v>
+      </c>
       <c r="C146" t="n">
-        <v>0.3121610120181275</v>
+        <v>0.4684231123818908</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.279969490188656</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8166132074394217</v>
+        <v>0.3682983010349564</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.7893293128642598</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C148" t="n">
-        <v>1.152914671053618</v>
+        <v>0.3682983010349564</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>1.240136875159377</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.369346306052853</v>
+        <v>0.3182358953614892</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.573531396723024</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.436082273882782</v>
+        <v>1.071568879801223</v>
       </c>
       <c r="C150" t="n">
-        <v>1.321065402860716</v>
+        <v>0.818859952096163</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>1.240136875159377</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8166132074394217</v>
+        <v>-1.183636274842532</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.6555183554121523</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C152" t="n">
-        <v>0.8166132074394217</v>
+        <v>-1.033449057822131</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.6555183554121523</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C153" t="n">
-        <v>1.321065402860716</v>
+        <v>1.1442655889737</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.4548019192339899</v>
+        <v>1.236551283551107</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.1922911834031666</v>
+        <v>-0.7330746237813266</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0.727194871592964</v>
+        <v>0.4116392648016893</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.3604419152102647</v>
+        <v>0.6436415322390265</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-1.10254209141732</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.614496883818926</v>
+        <v>1.071568879801223</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1922911834031666</v>
+        <v>0.243142286851288</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.5663110504440798</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.8648941106315589</v>
+        <v>0.04289266415741825</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.264019298015259</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8833076552870898</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.8648941106315589</v>
+        <v>-0.2074193642099187</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>3.247301236940997</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.369346306052853</v>
+        <v>-1.684260331577206</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.7390885051022767</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.7001220078961882</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9847639392465197</v>
+        <v>-0.8081682322915269</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.27023490425033</v>
+        <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0.727194871592964</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.3604419152102647</v>
+        <v>-1.158605072005799</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.54251138205416</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-1.240642406661045</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>0.01353643184838753</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C162" t="n">
-        <v>1.152914671053618</v>
+        <v>-1.50904191172007</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.09797269936170244</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.5285926470173627</v>
+        <v>-0.9833866521486635</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.7498682949544561</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.034649401526458</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8166132074394217</v>
+        <v>-1.308792289026201</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>1.819984357451846</v>
+        <v>2.226445706050408</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.5285926470173627</v>
+        <v>0.243142286851288</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.4047192373964315</v>
+        <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.7001220078961882</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1922911834031666</v>
+        <v>-0.2074193642099187</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.27023490425033</v>
+        <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3432927880238999</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.3604419152102647</v>
+        <v>-0.007169741516048955</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6379875666248915</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.8648941106315589</v>
+        <v>-0.2825129727201199</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-1.240642406661045</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>1.864588009935882</v>
+        <v>-1.403167176447029</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.8648941106315589</v>
+        <v>1.419608820177771</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-1.10254209141732</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.099942467279872</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.2317836568138099</v>
+        <v>1.236551283551107</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.537497037859951</v>
+        <v>-1.058480260658864</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-1.10254209141732</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1.240642406661045</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.2317836568138099</v>
+        <v>2.061463302300524</v>
       </c>
       <c r="C171" t="n">
-        <v>1.321065402860716</v>
+        <v>2.420856933647119</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.3432927880238999</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C172" t="n">
-        <v>1.489216134667814</v>
+        <v>-0.2825129727201199</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.7655731995740268</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5041766091727841</v>
+        <v>2.721392917300058</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.369346306052853</v>
+        <v>0.243142286851288</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-0.9262051931858881</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.4312039318681816</v>
+        <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>2.221417229808169</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.537497037859951</v>
+        <v>1.219359197483902</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.4101982667499541</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C175" t="n">
-        <v>1.152914671053618</v>
+        <v>-0.6079186095976581</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4844899926655682</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.099942467279872</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7048930453509457</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.201195574245755</v>
+        <v>-0.5077937982507228</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.013500687359864</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.7390885051022767</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>0.32576199923664</v>
+        <v>0.4116392648016893</v>
       </c>
       <c r="C177" t="n">
-        <v>1.152914671053618</v>
+        <v>1.1442655889737</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.8371637891284323</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1648781780877558</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1440102802110295</v>
+        <v>0.1430174755043526</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4312039318681816</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.2763873092978458</v>
+        <v>1.40153368730099</v>
       </c>
       <c r="C179" t="n">
-        <v>0.8166132074394217</v>
+        <v>-0.3576065812303212</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.434311734985717</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4595729566887474</v>
+        <v>-0.7432375614474952</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.5285926470173627</v>
+        <v>-0.2825129727201199</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.54251138205416</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.27023490425033</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.302271316430674</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4803117438252256</v>
+        <v>-0.5328250010874568</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.5983885657211042</v>
+        <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.213064011462602</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C182" t="n">
-        <v>1.152914671053618</v>
+        <v>2.145513702443048</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-0.7498682949544561</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.2375346035435089</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>0.727194871592964</v>
+        <v>-1.733131983946796</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.201195574245755</v>
+        <v>-0.6830122181078584</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.54251138205416</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4312039318681816</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.1648781780877558</v>
+        <v>1.071568879801223</v>
       </c>
       <c r="C184" t="n">
-        <v>0.8166132074394217</v>
+        <v>0.1179862726676195</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.267127101132795</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>2.176813577324133</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.369346306052853</v>
+        <v>-0.4327001897405215</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.718848280285592</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.935865636544485</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.2317836568138099</v>
+        <v>0.5766216685515728</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.1922911834031666</v>
+        <v>1.644889645708374</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.267127101132795</v>
+        <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>2.332926361018259</v>
+        <v>-1.238184772697146</v>
       </c>
       <c r="C187" t="n">
-        <v>-1.537497037859951</v>
+        <v>-0.833199435128261</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.3081530944341362</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.5983885657211042</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7941003503190174</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.5285926470173627</v>
+        <v>2.946512193218527</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-0.3971944984915919</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.09683466416233638</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.12027452560372</v>
+        <v>2.061463302300524</v>
       </c>
       <c r="C189" t="n">
-        <v>0.8166132074394217</v>
+        <v>0.0178614613206842</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-1.10254209141732</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.434311734985717</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>0.05814008433242415</v>
+        <v>-1.073202368947262</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3121610120181275</v>
+        <v>1.719983254218576</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.07034996969058624</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.079253054010494</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.8648941106315589</v>
+        <v>-1.308792289026201</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.54251138205416</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-1.073457772808122</v>
+        <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.302271316430674</v>
+        <v>-1.568149580196913</v>
       </c>
       <c r="C192" t="n">
-        <v>1.489216134667814</v>
+        <v>-1.108542666332332</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.366174483822728</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-1.742196308219812</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8833076552870898</v>
+        <v>1.236551283551107</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.8648941106315589</v>
+        <v>0.0178614613206842</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.07034996969058624</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.213064011462602</v>
+        <v>0.0816744573019223</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9847639392465197</v>
+        <v>0.6937039379124946</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-1.278878989648752</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.5983885657211042</v>
+        <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0.32576199923664</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.0241404515960686</v>
+        <v>-1.258729883352734</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-0.2208576002601599</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.8562347915903139</v>
+        <v>0.2466568610518058</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.8648941106315589</v>
+        <v>1.920232876912445</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.935865636544485</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.4101982667499541</v>
+        <v>-0.5782551576976117</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3121610120181275</v>
+        <v>-0.9082930436384622</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.2375346035435089</v>
+        <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.0310672206356483</v>
+        <v>-1.238184772697146</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6484624756323236</v>
+        <v>-0.5328250010874568</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.013500687359864</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.5983885657211042</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8164021765610356</v>
+        <v>-0.4132727539477282</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.033044842438657</v>
+        <v>0.6436415322390265</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-1.631552786111616</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.60149636883864</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>2.109908098598079</v>
+        <v>-0.9082199651973787</v>
       </c>
       <c r="C200" t="n">
-        <v>-1.537497037859951</v>
+        <v>-1.083511463495598</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-0.04452070202872788</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.9062731389551993</v>
+        <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.5663110504440798</v>
+        <v>-0.08330794644796119</v>
       </c>
       <c r="C201" t="n">
-        <v>1.489216134667814</v>
+        <v>-0.7080434209445925</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.366174483822728</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>2.422133665986332</v>
+        <v>-0.2482903501978447</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.537497037859951</v>
+        <v>-0.1823881613731846</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.013500687359864</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-0.571903871249354</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.146158532736548</v>
+        <v>-1.403167176447029</v>
       </c>
       <c r="C203" t="n">
-        <v>1.489216134667814</v>
+        <v>0.5935791265655593</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.189837585591296</v>
       </c>
     </row>
   </sheetData>
